--- a/tables/table_urbano_extra-urbano.xlsx
+++ b/tables/table_urbano_extra-urbano.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7b387290cc59031/Documents/Politecnico di Milano/AXD/FCP-Assoradio/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\audio-aesthetics\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="11_B99231273CE9E3BBCB2024B38D9C1286422A7DC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD6B8D9E-65F3-47BD-ABA3-456045165C75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B375B-86C4-47B8-A62F-A132609BCD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -633,14 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CB9064-F42F-4BEB-A688-0145060DC857}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2327,7 +2331,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C153" xr:uid="{D8CB9064-F42F-4BEB-A688-0145060DC857}"/>
+  <autoFilter ref="A1:C1" xr:uid="{D8CB9064-F42F-4BEB-A688-0145060DC857}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>